--- a/Math6/temp.xlsx
+++ b/Math6/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Math6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F6598-24B5-453D-8D8B-F22643522BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A066C18-1D53-49EF-AC2D-32411FF137A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>FÖRORD</t>
   </si>
@@ -300,139 +300,166 @@
     <t>您可能会发现先自己思考，然后与他人讨论是非常有用的。</t>
   </si>
   <si>
-    <t>25 Vilka värden saknas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. Avståndet mellan A och C är en fjärdedel av avståndet mellan A och B. Vilket tal är C? </t>
-  </si>
-  <si>
-    <t>27. Vilket tal ligger mitt emellan talen?</t>
-  </si>
-  <si>
-    <t>a) 0,1 och 0,15 b) -7 och 3 c) -11 och -18 d) 0,11 och 0,116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. Under en vecka i oktober var medeltemperaturen i Kiruna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Tabellen visar temperaturen måndag-lördag. Vilken temperatur var det på söndagen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. Den högsta temperatur som uppmätts i Sverige är 38,0 ”C i Ultuna 1933. </t>
-  </si>
-  <si>
-    <t>Hur många grader lägre temperatur är det än temperaturen i Death Valley 2020?</t>
-  </si>
-  <si>
-    <t>sommaren 2020 uppmättes temperaturen 54.4 i Death valley, USA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det är troligtvis den högsta temperatur som uppmätts på  jorden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den lägsta temperatur som någonsin uppmätts är -89.2 C. </t>
-  </si>
-  <si>
-    <t>Temperaturen uppmättes 1983 vid Sydpolen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. Den lägsta temperatur som uppmätts vid en svensk väderstation är -52,6 i Lappland år 1966. </t>
-  </si>
-  <si>
-    <t>Hur många grader högre temperatur är det än temperaturen vid Sydpolen 1983?</t>
-  </si>
-  <si>
-    <t>Temp.var Temp.sjönk, Temp.steg, Temp.blev</t>
-  </si>
-  <si>
-    <t>25 Which values are missing?</t>
-  </si>
-  <si>
-    <t>Temp.was Temp.fell, Temp.rose Temp.became</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 The distance between A and C is a quarter of the distance between A and B. What number is C? </t>
-  </si>
-  <si>
-    <t>27. Which number is in the middle of the numbers?</t>
-  </si>
-  <si>
-    <t>a) 0.1 and 0.15 b) -7 and 3 c) -11 and -18 d) 0.11 and 0.116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. During one week in October, the average temperature in Kiruna was </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. The table shows the temperature Monday-Saturday. What was the temperature on Sunday? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. The highest temperature measured in Sweden is 38.0"C in Ultuna in 1933. </t>
-  </si>
-  <si>
-    <t>How many degrees lower is that temperature than the temperature in Death Valley in 2020?</t>
-  </si>
-  <si>
-    <t>In the summer of 2020, the temperature measured 54.4 in Death valley, USA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is probably the highest temperature measured on Earth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lowest temperature ever measured is -89.2 C. </t>
-  </si>
-  <si>
-    <t>The temperature was measured in 1983 at the South Pole.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. The lowest temperature measured at a Swedish weather station is -52.6 in Lapland in 1966. </t>
-  </si>
-  <si>
-    <t>How many degrees higher is that than the temperature at the South Pole in 1983?</t>
-  </si>
-  <si>
-    <t>25 缺少哪些数值？</t>
-  </si>
-  <si>
-    <t>26 A 和 C 之间的距离是 A 和 B 之间距离的四分之一。C 是什么数？</t>
-  </si>
-  <si>
-    <t>27.哪个数在数字中间？</t>
-  </si>
-  <si>
-    <t>A) 0.1 和 0.15 B) -7 和 3 C) -11 和 -18 D) 0.11 和 0.116 28.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.在十月的一周内，基律纳的平均气温是 </t>
-  </si>
-  <si>
-    <t>表中显示的是周一至周六的气温。周日的气温是多少？</t>
-  </si>
-  <si>
-    <t>瑞典测得的最高气温是 1933 年在乌尔图纳测得的 38.0 摄氏度。</t>
-  </si>
-  <si>
-    <t>该温度比 2020 年死亡谷的温度低多少度？</t>
-  </si>
-  <si>
-    <t>2020 年夏天，美国死亡谷的气温为 54.4 摄氏度。</t>
-  </si>
-  <si>
-    <t>这可能是地球上测得的最高温度。</t>
-  </si>
-  <si>
-    <t>测得的最低温度为零下 89.2 摄氏度。</t>
-  </si>
-  <si>
-    <t>该温度是 1983 年在南极测得的。</t>
-  </si>
-  <si>
-    <t>30. 瑞典气象站测得的最低气温是 1966 年在拉普兰测得的-52.6 摄氏度。</t>
-  </si>
-  <si>
-    <t>这比 1983 年南极的气温高多少度？</t>
-  </si>
-  <si>
-    <t>曾经的温度, 温度下降了, 温度升高了, 温度变成了</t>
+    <t>Addition och subtraktion med tal i decimalform</t>
+  </si>
+  <si>
+    <t>ADDITION OCH SUBTRAKTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I det här avsnittet repeterar vi hur man gör beräkningar med addition och subtraktion. </t>
+  </si>
+  <si>
+    <t>En del uppgifter kan lösas med huvudräkning medan blir enklare att lösa med en uppställning.</t>
+  </si>
+  <si>
+    <t>andra</t>
+  </si>
+  <si>
+    <t>Addition Subtraktion</t>
+  </si>
+  <si>
+    <t>4,9 + 3,2 = 8,1 11,6 - 8,7 = 2,9</t>
+  </si>
+  <si>
+    <t>term term summa term term   differens</t>
+  </si>
+  <si>
+    <t>a) 47,8 +8,35 b) 46,03 - 13,58</t>
+  </si>
+  <si>
+    <t>a) 47 80 Skriv termerna med lika många decimaler innan du gör beräkningen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">För att se om svaret är rimligt kan du göra en överslagsräkning. </t>
+  </si>
+  <si>
+    <t>Då får du 50 + 10 = 60. Svaret är alltså rimligt.</t>
+  </si>
+  <si>
+    <t>b) 46,03 - 13,58</t>
+  </si>
+  <si>
+    <t>3 hundradelar minus 8 hundradelar går inte utan du måste växla ner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Växla ner 1 ental till 10 tiondelar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Växla sedan ner I av dessa tiondelar till hundradelar.</t>
+  </si>
+  <si>
+    <t>Svar: a) 56.15, b) 32.45</t>
+  </si>
+  <si>
+    <t>1.2 ADDITION OCH SUBTRAKTION MED TAL I DECIMALFORM</t>
+  </si>
+  <si>
+    <t>Visa din beräkning.</t>
+  </si>
+  <si>
+    <t>Skriv svar.</t>
+  </si>
+  <si>
+    <t>Addition and subtraction with numbers in decimal form</t>
+  </si>
+  <si>
+    <t>ADDITION AND SUBTRACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this section we review how to do calculations with addition and subtraction. </t>
+  </si>
+  <si>
+    <t>Some tasks can be solved with mental arithmetic, while others will be easier to solve with a table.</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Addition Subtraction</t>
+  </si>
+  <si>
+    <t>term term sum term term term difference</t>
+  </si>
+  <si>
+    <t>a) 47 80 Write the terms to the same number of decimal places before doing the calculation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To see if the answer is reasonable, you can do an extrapolation. </t>
+  </si>
+  <si>
+    <t>You will get 50 + 10 = 60. The answer is therefore reasonable.</t>
+  </si>
+  <si>
+    <t>3 hundredths minus 8 hundredths is not possible, so you have to convert down.</t>
+  </si>
+  <si>
+    <t>Change down 1 singular to 10 tenths.</t>
+  </si>
+  <si>
+    <t>Then change down I of these tenths to hundredths.</t>
+  </si>
+  <si>
+    <t>Answers: a) 56.15, b) 32.45</t>
+  </si>
+  <si>
+    <t>1.2 ADDITION AND SUBTRACTION WITH NUMBERS IN DECIMAL FORM</t>
+  </si>
+  <si>
+    <t>Show your calculation.</t>
+  </si>
+  <si>
+    <t>Write your answer.</t>
+  </si>
+  <si>
+    <t>小数加减法</t>
+  </si>
+  <si>
+    <t>加法和减法</t>
+  </si>
+  <si>
+    <t>在本节中，我们将复习如何进行加减法计算。</t>
+  </si>
+  <si>
+    <t>有些任务可以通过心算解决，而有些任务则更容易通过表格解决。</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>加法 减法</t>
+  </si>
+  <si>
+    <t>期数 期数 期数 期数 期数 期数 期数 期数 期数 期数 期数 期数 期数 期数 期数</t>
+  </si>
+  <si>
+    <t>a) 47 80 在计算之前，将各项写成相同的小数位数。</t>
+  </si>
+  <si>
+    <t>要想知道答案是否合理，可以进行外推法。</t>
+  </si>
+  <si>
+    <t>您将得到 50 + 10 = 60。因此答案是合理的。</t>
+  </si>
+  <si>
+    <t>3 个十分之一减去 8 个十分之一是不可能的，所以必须向下换算。</t>
+  </si>
+  <si>
+    <t>将 1 个十分之一向下转换为 10 个十分之一。</t>
+  </si>
+  <si>
+    <t>然后将其中的十分之一向下转换为百分之一。</t>
+  </si>
+  <si>
+    <t>答案：a) 56.15，b) 32.45</t>
+  </si>
+  <si>
+    <t>1.2 小数加减法</t>
+  </si>
+  <si>
+    <t>展示你的计算。</t>
+  </si>
+  <si>
+    <t>写出你的答案。</t>
   </si>
 </sst>
 </file>
@@ -468,7 +495,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -765,756 +793,858 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A110:C110"/>
@@ -1528,30 +1658,544 @@
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCDAEA6-879A-4B7E-9DD3-593B6998978F}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="73.20703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.62890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="79">
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="A75:C75"/>
@@ -1633,470 +2277,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705B45CF-FC70-450B-B261-847785A53458}">
-  <dimension ref="A1:C59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="70.734375" customWidth="1"/>
-    <col min="2" max="2" width="76.89453125" customWidth="1"/>
-    <col min="3" max="3" width="45.9453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>